--- a/source/capstat_spreadsheets/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/source/capstat_spreadsheets/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\capstat_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E707222-5E97-4C29-B3DD-83B1DB215F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84E0EA-872C-476D-9986-6B76043EBF92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Value</t>
   </si>
@@ -203,12 +203,6 @@
     <t>DeviceRequest</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/measure-deqm</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/medicationadministration-deqm</t>
   </si>
   <si>
@@ -221,12 +215,6 @@
     <t>MeasureReport</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/library-deqm</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/datax-measurereport-deqm</t>
   </si>
   <si>
@@ -272,15 +260,9 @@
     <t>DEQM DeviceRequest Profile</t>
   </si>
   <si>
-    <t>DEQM Measure Profile</t>
-  </si>
-  <si>
     <t>DEQM MedicationAdministration Profile</t>
   </si>
   <si>
-    <t>DEQM Library Profile</t>
-  </si>
-  <si>
     <t>DEQM Practitioner Profile</t>
   </si>
   <si>
@@ -312,9 +294,6 @@
   </si>
   <si>
     <t>QI Core</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/qicore/index.html</t>
   </si>
   <si>
     <t>collect-data</t>
@@ -339,12 +318,15 @@
   <si>
     <t>producer-server</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/qicore</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +341,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -403,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,6 +404,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -756,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -788,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -809,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,16 +814,19 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -843,9 +835,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -876,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -890,7 +882,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -904,7 +896,7 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -918,41 +910,41 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,7 +952,7 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -974,7 +966,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -994,63 +986,35 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1028,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,13 +1074,13 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,7 +1100,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,13 +1126,13 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1188,7 +1152,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1168,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
